--- a/donation_data/primary_data_extracted/vfz2020-spd_edit.xlsx
+++ b/donation_data/primary_data_extracted/vfz2020-spd_edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michs\Dropbox\_research\CzechElectionData\ced\ced\ced\donation_data\primary_data_extracted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vtitl/Documents/GitHub/ced/donation_data/primary_data_extracted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F830A50B-27A9-4B01-A4CF-9039A26C969A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6D1E64-9D09-F641-8B56-4F2331C2B1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E81EC001-1A5B-4673-B1FF-DE989494770D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{E81EC001-1A5B-4673-B1FF-DE989494770D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1226,3626 +1226,3626 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFCDD50-A7ED-4D2B-BDA3-852E41B8FEDB}">
-  <dimension ref="A1:O258"/>
+  <dimension ref="A1:D258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E226" sqref="E1:AA1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="L1">
+      <c r="C1">
         <v>19539</v>
       </c>
-      <c r="O1">
+      <c r="D1">
         <v>5000</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="L2">
+      <c r="C2">
         <v>24138</v>
       </c>
-      <c r="O2">
+      <c r="D2">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="L3">
+      <c r="C3">
         <v>24273</v>
       </c>
-      <c r="O3">
+      <c r="D3">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="L4">
+      <c r="C4">
         <v>28249</v>
       </c>
-      <c r="O4">
+      <c r="D4">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="L5">
+      <c r="C5">
         <v>21888</v>
       </c>
-      <c r="O5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="L6">
+      <c r="C6">
         <v>28599</v>
       </c>
-      <c r="O6">
+      <c r="D6">
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="L7">
+      <c r="C7">
         <v>19321</v>
       </c>
-      <c r="O7">
+      <c r="D7">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="L8">
+      <c r="C8">
         <v>33418</v>
       </c>
-      <c r="O8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
-      <c r="L9">
+      <c r="C9">
         <v>28780</v>
       </c>
-      <c r="O9">
+      <c r="D9">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="F10" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="L10">
+      <c r="C10">
         <v>27566</v>
       </c>
-      <c r="O10">
+      <c r="D10">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="F11" t="s">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="L11">
+      <c r="C11">
         <v>24273</v>
       </c>
-      <c r="O11">
+      <c r="D11">
         <v>300</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="F12" t="s">
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="L12">
+      <c r="C12">
         <v>28249</v>
       </c>
-      <c r="O12">
+      <c r="D12">
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="F13" t="s">
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="L13">
+      <c r="C13">
         <v>27165</v>
       </c>
-      <c r="O13">
+      <c r="D13">
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" t="s">
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="L14">
+      <c r="C14">
         <v>33418</v>
       </c>
-      <c r="O14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="F15" t="s">
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="L15">
+      <c r="C15">
         <v>21888</v>
       </c>
-      <c r="O15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="F16" t="s">
+      <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="L16">
+      <c r="C16">
         <v>28599</v>
       </c>
-      <c r="O16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="F17" t="s">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="L17">
+      <c r="C17">
         <v>28780</v>
       </c>
-      <c r="O17">
+      <c r="D17">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="F18" t="s">
+      <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="L18">
+      <c r="C18">
         <v>23736</v>
       </c>
-      <c r="O18">
+      <c r="D18">
         <v>100000</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="F19" t="s">
+      <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="L19">
+      <c r="C19">
         <v>25932</v>
       </c>
-      <c r="O19">
+      <c r="D19">
         <v>5000</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="F20" t="s">
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="L20">
+      <c r="C20">
         <v>27566</v>
       </c>
-      <c r="O20">
+      <c r="D20">
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="F21" t="s">
+      <c r="B21" t="s">
         <v>5</v>
       </c>
-      <c r="L21">
+      <c r="C21">
         <v>24273</v>
       </c>
-      <c r="O21">
+      <c r="D21">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
-      <c r="F22" t="s">
+      <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="L22">
+      <c r="C22">
         <v>28249</v>
       </c>
-      <c r="O22">
+      <c r="D22">
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
-      <c r="F23" t="s">
+      <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="L23">
+      <c r="C23">
         <v>21888</v>
       </c>
-      <c r="O23">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="F24" t="s">
+      <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="L24">
+      <c r="C24">
         <v>33418</v>
       </c>
-      <c r="O24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="F25" t="s">
+      <c r="B25" t="s">
         <v>11</v>
       </c>
-      <c r="L25">
+      <c r="C25">
         <v>28599</v>
       </c>
-      <c r="O25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="F26" t="s">
+      <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="L26">
+      <c r="C26">
         <v>16097</v>
       </c>
-      <c r="O26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="F27" t="s">
+      <c r="B27" t="s">
         <v>17</v>
       </c>
-      <c r="L27">
+      <c r="C27">
         <v>28780</v>
       </c>
-      <c r="O27">
+      <c r="D27">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>18</v>
       </c>
-      <c r="F28" t="s">
+      <c r="B28" t="s">
         <v>19</v>
       </c>
-      <c r="L28">
+      <c r="C28">
         <v>27566</v>
       </c>
-      <c r="O28">
+      <c r="D28">
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
-      <c r="F29" t="s">
+      <c r="B29" t="s">
         <v>5</v>
       </c>
-      <c r="L29">
+      <c r="C29">
         <v>24273</v>
       </c>
-      <c r="O29">
+      <c r="D29">
         <v>2300</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="F30" t="s">
+      <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="L30">
+      <c r="C30">
         <v>28249</v>
       </c>
-      <c r="O30">
+      <c r="D30">
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
-      <c r="F31" t="s">
+      <c r="B31" t="s">
         <v>9</v>
       </c>
-      <c r="L31">
+      <c r="C31">
         <v>21888</v>
       </c>
-      <c r="O31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>10</v>
       </c>
-      <c r="F32" t="s">
+      <c r="B32" t="s">
         <v>11</v>
       </c>
-      <c r="L32">
+      <c r="C32">
         <v>28599</v>
       </c>
-      <c r="O32">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="F33" t="s">
+      <c r="B33" t="s">
         <v>15</v>
       </c>
-      <c r="L33">
+      <c r="C33">
         <v>33418</v>
       </c>
-      <c r="O33">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>16</v>
       </c>
-      <c r="F34" t="s">
+      <c r="B34" t="s">
         <v>17</v>
       </c>
-      <c r="L34">
+      <c r="C34">
         <v>28780</v>
       </c>
-      <c r="O34">
+      <c r="D34">
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>18</v>
       </c>
-      <c r="F35" t="s">
+      <c r="B35" t="s">
         <v>28</v>
       </c>
-      <c r="L35">
+      <c r="C35">
         <v>27566</v>
       </c>
-      <c r="O35">
+      <c r="D35">
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>20</v>
       </c>
-      <c r="F36" t="s">
+      <c r="B36" t="s">
         <v>154</v>
       </c>
-      <c r="L36" t="s">
+      <c r="C36" t="s">
         <v>155</v>
       </c>
-      <c r="O36">
+      <c r="D36">
         <v>12000</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
-      <c r="F37" t="s">
+      <c r="B37" t="s">
         <v>5</v>
       </c>
-      <c r="L37" t="s">
+      <c r="C37" t="s">
         <v>180</v>
       </c>
-      <c r="O37">
+      <c r="D37">
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>24</v>
       </c>
-      <c r="F38" t="s">
+      <c r="B38" t="s">
         <v>25</v>
       </c>
-      <c r="L38" t="s">
+      <c r="C38" t="s">
         <v>181</v>
       </c>
-      <c r="O38">
+      <c r="D38">
         <v>5000</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>29</v>
       </c>
-      <c r="F39" t="s">
+      <c r="B39" t="s">
         <v>156</v>
       </c>
-      <c r="L39" t="s">
+      <c r="C39" t="s">
         <v>182</v>
       </c>
-      <c r="O39">
+      <c r="D39">
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
       </c>
-      <c r="F40" t="s">
+      <c r="B40" t="s">
         <v>7</v>
       </c>
-      <c r="L40" t="s">
+      <c r="C40" t="s">
         <v>183</v>
       </c>
-      <c r="O40">
+      <c r="D40">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>8</v>
       </c>
-      <c r="F41" t="s">
+      <c r="B41" t="s">
         <v>9</v>
       </c>
-      <c r="L41" t="s">
+      <c r="C41" t="s">
         <v>184</v>
       </c>
-      <c r="O41">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>10</v>
       </c>
-      <c r="F42" t="s">
+      <c r="B42" t="s">
         <v>11</v>
       </c>
-      <c r="L42" t="s">
+      <c r="C42" t="s">
         <v>185</v>
       </c>
-      <c r="O42">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>30</v>
       </c>
-      <c r="F43" t="s">
+      <c r="B43" t="s">
         <v>157</v>
       </c>
-      <c r="L43" t="s">
+      <c r="C43" t="s">
         <v>186</v>
       </c>
-      <c r="O43">
+      <c r="D43">
         <v>10000</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>14</v>
       </c>
-      <c r="F44" t="s">
+      <c r="B44" t="s">
         <v>15</v>
       </c>
-      <c r="L44" t="s">
+      <c r="C44" t="s">
         <v>187</v>
       </c>
-      <c r="O44">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>31</v>
       </c>
-      <c r="F45" t="s">
+      <c r="B45" t="s">
         <v>158</v>
       </c>
-      <c r="L45" t="s">
+      <c r="C45" t="s">
         <v>188</v>
       </c>
-      <c r="O45">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>0</v>
       </c>
-      <c r="F46" t="s">
+      <c r="B46" t="s">
         <v>89</v>
       </c>
-      <c r="L46" t="s">
+      <c r="C46" t="s">
         <v>189</v>
       </c>
-      <c r="O46">
+      <c r="D46">
         <v>1000</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>32</v>
       </c>
-      <c r="F47" t="s">
+      <c r="B47" t="s">
         <v>159</v>
       </c>
-      <c r="L47" t="s">
+      <c r="C47" t="s">
         <v>190</v>
       </c>
-      <c r="O47">
+      <c r="D47">
         <v>1000</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>33</v>
       </c>
-      <c r="F48" t="s">
+      <c r="B48" t="s">
         <v>160</v>
       </c>
-      <c r="L48" t="s">
+      <c r="C48" t="s">
         <v>191</v>
       </c>
-      <c r="O48">
+      <c r="D48">
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>20</v>
       </c>
-      <c r="F49" t="s">
+      <c r="B49" t="s">
         <v>161</v>
       </c>
-      <c r="L49" t="s">
+      <c r="C49" t="s">
         <v>192</v>
       </c>
-      <c r="O49">
+      <c r="D49">
         <v>1100</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>34</v>
       </c>
-      <c r="F50" t="s">
+      <c r="B50" t="s">
         <v>162</v>
       </c>
-      <c r="L50" t="s">
+      <c r="C50" t="s">
         <v>193</v>
       </c>
-      <c r="O50">
+      <c r="D50">
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>35</v>
       </c>
-      <c r="F51" t="s">
+      <c r="B51" t="s">
         <v>163</v>
       </c>
-      <c r="L51" t="s">
+      <c r="C51" t="s">
         <v>194</v>
       </c>
-      <c r="O51">
+      <c r="D51">
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>36</v>
       </c>
-      <c r="F52" t="s">
+      <c r="B52" t="s">
         <v>164</v>
       </c>
-      <c r="L52" t="s">
+      <c r="C52" t="s">
         <v>195</v>
       </c>
-      <c r="O52">
+      <c r="D52">
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>37</v>
       </c>
-      <c r="F53" t="s">
+      <c r="B53" t="s">
         <v>162</v>
       </c>
-      <c r="L53" t="s">
+      <c r="C53" t="s">
         <v>196</v>
       </c>
-      <c r="O53">
+      <c r="D53">
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>38</v>
       </c>
-      <c r="F54" t="s">
+      <c r="B54" t="s">
         <v>165</v>
       </c>
-      <c r="L54" t="s">
+      <c r="C54" t="s">
         <v>197</v>
       </c>
-      <c r="O54">
+      <c r="D54">
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>39</v>
       </c>
-      <c r="F55" t="s">
+      <c r="B55" t="s">
         <v>166</v>
       </c>
-      <c r="L55" t="s">
+      <c r="C55" t="s">
         <v>198</v>
       </c>
-      <c r="O55">
+      <c r="D55">
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>40</v>
       </c>
-      <c r="F56" t="s">
+      <c r="B56" t="s">
         <v>167</v>
       </c>
-      <c r="L56" t="s">
+      <c r="C56" t="s">
         <v>199</v>
       </c>
-      <c r="O56">
+      <c r="D56">
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>34</v>
       </c>
-      <c r="F57" t="s">
+      <c r="B57" t="s">
         <v>162</v>
       </c>
-      <c r="L57" t="s">
+      <c r="C57" t="s">
         <v>193</v>
       </c>
-      <c r="O57">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>35</v>
       </c>
-      <c r="F58" t="s">
+      <c r="B58" t="s">
         <v>168</v>
       </c>
-      <c r="L58" t="s">
+      <c r="C58" t="s">
         <v>200</v>
       </c>
-      <c r="O58">
+      <c r="D58">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>16</v>
       </c>
-      <c r="F59" t="s">
+      <c r="B59" t="s">
         <v>17</v>
       </c>
-      <c r="L59" t="s">
+      <c r="C59" t="s">
         <v>201</v>
       </c>
-      <c r="O59">
+      <c r="D59">
         <v>200</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>41</v>
       </c>
-      <c r="F60" t="s">
+      <c r="B60" t="s">
         <v>169</v>
       </c>
-      <c r="L60" t="s">
+      <c r="C60" t="s">
         <v>202</v>
       </c>
-      <c r="O60">
+      <c r="D60">
         <v>20000</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>20</v>
       </c>
-      <c r="F61" t="s">
+      <c r="B61" t="s">
         <v>170</v>
       </c>
-      <c r="L61" t="s">
+      <c r="C61" t="s">
         <v>203</v>
       </c>
-      <c r="O61">
+      <c r="D61">
         <v>20000</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>31</v>
       </c>
-      <c r="F62" t="s">
+      <c r="B62" t="s">
         <v>171</v>
       </c>
-      <c r="L62" t="s">
+      <c r="C62" t="s">
         <v>204</v>
       </c>
-      <c r="O62">
+      <c r="D62">
         <v>5000</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>36</v>
       </c>
-      <c r="F63" t="s">
+      <c r="B63" t="s">
         <v>172</v>
       </c>
-      <c r="L63" t="s">
+      <c r="C63" t="s">
         <v>205</v>
       </c>
-      <c r="O63">
+      <c r="D63">
         <v>500</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>42</v>
       </c>
-      <c r="F64" t="s">
+      <c r="B64" t="s">
         <v>173</v>
       </c>
-      <c r="L64" t="s">
+      <c r="C64" t="s">
         <v>206</v>
       </c>
-      <c r="O64">
+      <c r="D64">
         <v>1000</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>22</v>
       </c>
-      <c r="F65" t="s">
+      <c r="B65" t="s">
         <v>169</v>
       </c>
-      <c r="L65" t="s">
+      <c r="C65" t="s">
         <v>207</v>
       </c>
-      <c r="O65">
+      <c r="D65">
         <v>20000</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>43</v>
       </c>
-      <c r="F66" t="s">
+      <c r="B66" t="s">
         <v>174</v>
       </c>
-      <c r="L66" t="s">
+      <c r="C66" t="s">
         <v>208</v>
       </c>
-      <c r="O66">
+      <c r="D66">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>44</v>
       </c>
-      <c r="F67" t="s">
+      <c r="B67" t="s">
         <v>75</v>
       </c>
-      <c r="L67" t="s">
+      <c r="C67" t="s">
         <v>209</v>
       </c>
-      <c r="O67">
+      <c r="D67">
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>45</v>
       </c>
-      <c r="F68" t="s">
+      <c r="B68" t="s">
         <v>175</v>
       </c>
-      <c r="L68" t="s">
+      <c r="C68" t="s">
         <v>210</v>
       </c>
-      <c r="O68">
+      <c r="D68">
         <v>1000</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>32</v>
       </c>
-      <c r="F69" t="s">
+      <c r="B69" t="s">
         <v>176</v>
       </c>
-      <c r="L69" t="s">
+      <c r="C69" t="s">
         <v>211</v>
       </c>
-      <c r="O69">
+      <c r="D69">
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>18</v>
       </c>
-      <c r="F70" t="s">
+      <c r="B70" t="s">
         <v>28</v>
       </c>
-      <c r="L70" t="s">
+      <c r="C70" t="s">
         <v>212</v>
       </c>
-      <c r="O70">
+      <c r="D70">
         <v>1000</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>46</v>
       </c>
-      <c r="F71" t="s">
+      <c r="B71" t="s">
         <v>213</v>
       </c>
-      <c r="L71" t="s">
+      <c r="C71" t="s">
         <v>214</v>
       </c>
-      <c r="O71">
+      <c r="D71">
         <v>2000</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>47</v>
       </c>
-      <c r="F72" t="s">
+      <c r="B72" t="s">
         <v>177</v>
       </c>
-      <c r="L72" t="s">
+      <c r="C72" t="s">
         <v>215</v>
       </c>
-      <c r="O72">
+      <c r="D72">
         <v>20000</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>20</v>
       </c>
-      <c r="F73" t="s">
+      <c r="B73" t="s">
         <v>178</v>
       </c>
-      <c r="L73" t="s">
+      <c r="C73" t="s">
         <v>216</v>
       </c>
-      <c r="O73">
+      <c r="D73">
         <v>100000</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>4</v>
       </c>
-      <c r="F74" t="s">
+      <c r="B74" t="s">
         <v>5</v>
       </c>
-      <c r="L74" t="s">
+      <c r="C74" t="s">
         <v>180</v>
       </c>
-      <c r="O74">
+      <c r="D74">
         <v>300</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>22</v>
       </c>
-      <c r="F75" t="s">
+      <c r="B75" t="s">
         <v>23</v>
       </c>
-      <c r="L75" t="s">
+      <c r="C75" t="s">
         <v>217</v>
       </c>
-      <c r="O75">
+      <c r="D75">
         <v>50000</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>48</v>
       </c>
-      <c r="F76" t="s">
+      <c r="B76" t="s">
         <v>179</v>
       </c>
-      <c r="L76" t="s">
+      <c r="C76" t="s">
         <v>218</v>
       </c>
-      <c r="O76">
+      <c r="D76">
         <v>5000</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>46</v>
       </c>
-      <c r="F77" t="s">
+      <c r="B77" t="s">
         <v>49</v>
       </c>
-      <c r="L77">
+      <c r="C77">
         <v>20067</v>
       </c>
-      <c r="O77">
+      <c r="D77">
         <v>5000</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>50</v>
       </c>
-      <c r="F78" t="s">
+      <c r="B78" t="s">
         <v>51</v>
       </c>
-      <c r="L78">
+      <c r="C78">
         <v>19444</v>
       </c>
-      <c r="O78">
+      <c r="D78">
         <v>5000</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>52</v>
       </c>
-      <c r="F79" t="s">
+      <c r="B79" t="s">
         <v>53</v>
       </c>
-      <c r="L79">
+      <c r="C79">
         <v>23526</v>
       </c>
-      <c r="O79">
+      <c r="D79">
         <v>10000</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>54</v>
       </c>
-      <c r="F80" t="s">
+      <c r="B80" t="s">
         <v>55</v>
       </c>
-      <c r="L80">
+      <c r="C80">
         <v>23036</v>
       </c>
-      <c r="O80">
+      <c r="D80">
         <v>5000</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>56</v>
       </c>
-      <c r="F81" t="s">
+      <c r="B81" t="s">
         <v>57</v>
       </c>
-      <c r="L81">
+      <c r="C81">
         <v>21926</v>
       </c>
-      <c r="O81">
+      <c r="D81">
         <v>2000</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>20</v>
       </c>
-      <c r="F82" t="s">
+      <c r="B82" t="s">
         <v>58</v>
       </c>
-      <c r="L82">
+      <c r="C82">
         <v>25563</v>
       </c>
-      <c r="O82">
+      <c r="D82">
         <v>1000</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>59</v>
       </c>
-      <c r="F83" t="s">
+      <c r="B83" t="s">
         <v>60</v>
       </c>
-      <c r="L83">
+      <c r="C83">
         <v>18718</v>
       </c>
-      <c r="O83">
+      <c r="D83">
         <v>300</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>24</v>
       </c>
-      <c r="F84" t="s">
+      <c r="B84" t="s">
         <v>25</v>
       </c>
-      <c r="L84">
+      <c r="C84">
         <v>25932</v>
       </c>
-      <c r="O84">
+      <c r="D84">
         <v>5000</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>6</v>
       </c>
-      <c r="F85" t="s">
+      <c r="B85" t="s">
         <v>7</v>
       </c>
-      <c r="L85">
+      <c r="C85">
         <v>28249</v>
       </c>
-      <c r="O85">
+      <c r="D85">
         <v>300</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>8</v>
       </c>
-      <c r="F86" t="s">
+      <c r="B86" t="s">
         <v>9</v>
       </c>
-      <c r="L86">
+      <c r="C86">
         <v>21888</v>
       </c>
-      <c r="O86">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>10</v>
       </c>
-      <c r="F87" t="s">
+      <c r="B87" t="s">
         <v>11</v>
       </c>
-      <c r="L87">
+      <c r="C87">
         <v>28599</v>
       </c>
-      <c r="O87">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>47</v>
       </c>
-      <c r="F88" t="s">
+      <c r="B88" t="s">
         <v>61</v>
       </c>
-      <c r="L88">
+      <c r="C88">
         <v>24508</v>
       </c>
-      <c r="O88">
+      <c r="D88">
         <v>50000</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>32</v>
       </c>
-      <c r="F89" t="s">
+      <c r="B89" t="s">
         <v>62</v>
       </c>
-      <c r="L89">
+      <c r="C89">
         <v>23806</v>
       </c>
-      <c r="O89">
+      <c r="D89">
         <v>1000</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>14</v>
       </c>
-      <c r="F90" t="s">
+      <c r="B90" t="s">
         <v>15</v>
       </c>
-      <c r="L90">
+      <c r="C90">
         <v>33418</v>
       </c>
-      <c r="O90">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>20</v>
       </c>
-      <c r="F91" t="s">
+      <c r="B91" t="s">
         <v>63</v>
       </c>
-      <c r="L91">
+      <c r="C91">
         <v>22980</v>
       </c>
-      <c r="O91">
+      <c r="D91">
         <v>2000</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>14</v>
       </c>
-      <c r="F92" t="s">
+      <c r="B92" t="s">
         <v>64</v>
       </c>
-      <c r="L92">
+      <c r="C92">
         <v>19967</v>
       </c>
-      <c r="O92">
+      <c r="D92">
         <v>500</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>65</v>
       </c>
-      <c r="F93" t="s">
+      <c r="B93" t="s">
         <v>66</v>
       </c>
-      <c r="L93">
+      <c r="C93">
         <v>20416</v>
       </c>
-      <c r="O93">
+      <c r="D93">
         <v>1000</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>31</v>
       </c>
-      <c r="F94" t="s">
+      <c r="B94" t="s">
         <v>67</v>
       </c>
-      <c r="L94">
+      <c r="C94">
         <v>27775</v>
       </c>
-      <c r="O94">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>16</v>
       </c>
-      <c r="F95" t="s">
+      <c r="B95" t="s">
         <v>17</v>
       </c>
-      <c r="L95">
+      <c r="C95">
         <v>28780</v>
       </c>
-      <c r="O95">
+      <c r="D95">
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>68</v>
       </c>
-      <c r="F96" t="s">
+      <c r="B96" t="s">
         <v>69</v>
       </c>
-      <c r="L96">
+      <c r="C96">
         <v>27487</v>
       </c>
-      <c r="O96">
+      <c r="D96">
         <v>5000</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>70</v>
       </c>
-      <c r="F97" t="s">
+      <c r="B97" t="s">
         <v>71</v>
       </c>
-      <c r="L97">
+      <c r="C97">
         <v>29958</v>
       </c>
-      <c r="O97">
+      <c r="D97">
         <v>20000</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>72</v>
       </c>
-      <c r="F98" t="s">
+      <c r="B98" t="s">
         <v>73</v>
       </c>
-      <c r="L98">
+      <c r="C98">
         <v>24705</v>
       </c>
-      <c r="O98">
+      <c r="D98">
         <v>5000</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>70</v>
       </c>
-      <c r="F99" t="s">
+      <c r="B99" t="s">
         <v>74</v>
       </c>
-      <c r="L99">
+      <c r="C99">
         <v>35262</v>
       </c>
-      <c r="O99">
+      <c r="D99">
         <v>1000</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>44</v>
       </c>
-      <c r="F100" t="s">
+      <c r="B100" t="s">
         <v>75</v>
       </c>
-      <c r="L100">
+      <c r="C100">
         <v>26398</v>
       </c>
-      <c r="O100">
+      <c r="D100">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>32</v>
       </c>
-      <c r="F101" t="s">
+      <c r="B101" t="s">
         <v>76</v>
       </c>
-      <c r="L101">
+      <c r="C101">
         <v>19169</v>
       </c>
-      <c r="O101">
+      <c r="D101">
         <v>20000</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>41</v>
       </c>
-      <c r="F102" t="s">
+      <c r="B102" t="s">
         <v>77</v>
       </c>
-      <c r="L102">
+      <c r="C102">
         <v>22612</v>
       </c>
-      <c r="O102">
+      <c r="D102">
         <v>1000</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>18</v>
       </c>
-      <c r="F103" t="s">
+      <c r="B103" t="s">
         <v>78</v>
       </c>
-      <c r="L103">
+      <c r="C103">
         <v>27566</v>
       </c>
-      <c r="O103">
+      <c r="D103">
         <v>1000</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>0</v>
       </c>
-      <c r="F104" t="s">
+      <c r="B104" t="s">
         <v>79</v>
       </c>
-      <c r="L104">
+      <c r="C104">
         <v>21128</v>
       </c>
-      <c r="O104">
+      <c r="D104">
         <v>30000</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>0</v>
       </c>
-      <c r="F105" t="s">
+      <c r="B105" t="s">
         <v>80</v>
       </c>
-      <c r="L105">
+      <c r="C105">
         <v>19539</v>
       </c>
-      <c r="O105">
+      <c r="D105">
         <v>5000</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>4</v>
       </c>
-      <c r="F106" t="s">
+      <c r="B106" t="s">
         <v>5</v>
       </c>
-      <c r="L106">
+      <c r="C106">
         <v>24273</v>
       </c>
-      <c r="O106">
+      <c r="D106">
         <v>300</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>81</v>
       </c>
-      <c r="F107" t="s">
+      <c r="B107" t="s">
         <v>82</v>
       </c>
-      <c r="L107">
+      <c r="C107">
         <v>23239</v>
       </c>
-      <c r="O107">
+      <c r="D107">
         <v>5000</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>30</v>
       </c>
-      <c r="F108" t="s">
+      <c r="B108" t="s">
         <v>83</v>
       </c>
-      <c r="L108">
+      <c r="C108">
         <v>30454</v>
       </c>
-      <c r="O108">
+      <c r="D108">
         <v>500</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>31</v>
       </c>
-      <c r="F109" t="s">
+      <c r="B109" t="s">
         <v>67</v>
       </c>
-      <c r="L109">
+      <c r="C109">
         <v>27775</v>
       </c>
-      <c r="O109">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>84</v>
       </c>
-      <c r="F110" t="s">
+      <c r="B110" t="s">
         <v>85</v>
       </c>
-      <c r="L110">
+      <c r="C110">
         <v>26451</v>
       </c>
-      <c r="O110">
+      <c r="D110">
         <v>500</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>86</v>
       </c>
-      <c r="F111" t="s">
+      <c r="B111" t="s">
         <v>87</v>
       </c>
-      <c r="L111">
+      <c r="C111">
         <v>25925</v>
       </c>
-      <c r="O111">
+      <c r="D111">
         <v>50000</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>6</v>
       </c>
-      <c r="F112" t="s">
+      <c r="B112" t="s">
         <v>7</v>
       </c>
-      <c r="L112">
+      <c r="C112">
         <v>28249</v>
       </c>
-      <c r="O112">
+      <c r="D112">
         <v>300</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>10</v>
       </c>
-      <c r="F113" t="s">
+      <c r="B113" t="s">
         <v>11</v>
       </c>
-      <c r="L113">
+      <c r="C113">
         <v>28599</v>
       </c>
-      <c r="O113">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>8</v>
       </c>
-      <c r="F114" t="s">
+      <c r="B114" t="s">
         <v>9</v>
       </c>
-      <c r="L114">
+      <c r="C114">
         <v>21888</v>
       </c>
-      <c r="O114">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>70</v>
       </c>
-      <c r="F115" t="s">
+      <c r="B115" t="s">
         <v>74</v>
       </c>
-      <c r="L115" t="s">
+      <c r="C115" t="s">
         <v>243</v>
       </c>
-      <c r="O115">
+      <c r="D115">
         <v>1000</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>32</v>
       </c>
-      <c r="F116" t="s">
+      <c r="B116" t="s">
         <v>225</v>
       </c>
-      <c r="L116" t="s">
+      <c r="C116" t="s">
         <v>244</v>
       </c>
-      <c r="O116">
+      <c r="D116">
         <v>300</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>14</v>
       </c>
-      <c r="F117" t="s">
+      <c r="B117" t="s">
         <v>15</v>
       </c>
-      <c r="L117" t="s">
+      <c r="C117" t="s">
         <v>187</v>
       </c>
-      <c r="O117">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>84</v>
       </c>
-      <c r="F118" t="s">
+      <c r="B118" t="s">
         <v>226</v>
       </c>
-      <c r="L118" t="s">
+      <c r="C118" t="s">
         <v>245</v>
       </c>
-      <c r="O118">
+      <c r="D118">
         <v>150</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>219</v>
       </c>
-      <c r="F119" t="s">
+      <c r="B119" t="s">
         <v>227</v>
       </c>
-      <c r="L119" t="s">
+      <c r="C119" t="s">
         <v>246</v>
       </c>
-      <c r="O119">
+      <c r="D119">
         <v>500</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>220</v>
       </c>
-      <c r="F120" t="s">
+      <c r="B120" t="s">
         <v>228</v>
       </c>
-      <c r="L120" t="s">
+      <c r="C120" t="s">
         <v>247</v>
       </c>
-      <c r="O120">
+      <c r="D120">
         <v>500</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>221</v>
       </c>
-      <c r="F121" t="s">
+      <c r="B121" t="s">
         <v>229</v>
       </c>
-      <c r="L121" t="s">
+      <c r="C121" t="s">
         <v>248</v>
       </c>
-      <c r="O121">
+      <c r="D121">
         <v>40000</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>222</v>
       </c>
-      <c r="F122" t="s">
+      <c r="B122" t="s">
         <v>230</v>
       </c>
-      <c r="L122" t="s">
+      <c r="C122" t="s">
         <v>249</v>
       </c>
-      <c r="O122">
+      <c r="D122">
         <v>20000</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>16</v>
       </c>
-      <c r="F123" t="s">
+      <c r="B123" t="s">
         <v>17</v>
       </c>
-      <c r="L123" t="s">
+      <c r="C123" t="s">
         <v>201</v>
       </c>
-      <c r="O123">
+      <c r="D123">
         <v>200</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>18</v>
       </c>
-      <c r="F124" t="s">
+      <c r="B124" t="s">
         <v>231</v>
       </c>
-      <c r="L124" t="s">
+      <c r="C124" t="s">
         <v>250</v>
       </c>
-      <c r="O124">
+      <c r="D124">
         <v>50000</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>44</v>
       </c>
-      <c r="F125" t="s">
+      <c r="B125" t="s">
         <v>75</v>
       </c>
-      <c r="L125" t="s">
+      <c r="C125" t="s">
         <v>209</v>
       </c>
-      <c r="O125">
+      <c r="D125">
         <v>200</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>47</v>
       </c>
-      <c r="F126" t="s">
+      <c r="B126" t="s">
         <v>232</v>
       </c>
-      <c r="L126" t="s">
+      <c r="C126" t="s">
         <v>251</v>
       </c>
-      <c r="O126">
+      <c r="D126">
         <v>20000</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>0</v>
       </c>
-      <c r="F127" t="s">
+      <c r="B127" t="s">
         <v>137</v>
       </c>
-      <c r="L127" t="s">
+      <c r="C127" t="s">
         <v>252</v>
       </c>
-      <c r="O127">
+      <c r="D127">
         <v>10000</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>70</v>
       </c>
-      <c r="F128" t="s">
+      <c r="B128" t="s">
         <v>233</v>
       </c>
-      <c r="L128" t="s">
+      <c r="C128" t="s">
         <v>253</v>
       </c>
-      <c r="O128">
+      <c r="D128">
         <v>300</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>138</v>
       </c>
-      <c r="F129" t="s">
+      <c r="B129" t="s">
         <v>139</v>
       </c>
-      <c r="L129" t="s">
+      <c r="C129" t="s">
         <v>254</v>
       </c>
-      <c r="O129">
+      <c r="D129">
         <v>9000</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>4</v>
       </c>
-      <c r="F130" t="s">
+      <c r="B130" t="s">
         <v>234</v>
       </c>
-      <c r="L130" t="s">
+      <c r="C130" t="s">
         <v>255</v>
       </c>
-      <c r="O130">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>84</v>
       </c>
-      <c r="F131" t="s">
+      <c r="B131" t="s">
         <v>93</v>
       </c>
-      <c r="L131" t="s">
+      <c r="C131" t="s">
         <v>256</v>
       </c>
-      <c r="O131">
+      <c r="D131">
         <v>30000</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>18</v>
       </c>
-      <c r="F132" t="s">
+      <c r="B132" t="s">
         <v>28</v>
       </c>
-      <c r="L132" t="s">
+      <c r="C132" t="s">
         <v>212</v>
       </c>
-      <c r="O132">
+      <c r="D132">
         <v>1000</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>46</v>
       </c>
-      <c r="F133" t="s">
+      <c r="B133" t="s">
         <v>235</v>
       </c>
-      <c r="L133" t="s">
+      <c r="C133" t="s">
         <v>257</v>
       </c>
-      <c r="O133">
+      <c r="D133">
         <v>50000</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>38</v>
       </c>
-      <c r="F134" t="s">
+      <c r="B134" t="s">
         <v>236</v>
       </c>
-      <c r="L134" t="s">
+      <c r="C134" t="s">
         <v>258</v>
       </c>
-      <c r="O134">
+      <c r="D134">
         <v>200</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>8</v>
       </c>
-      <c r="F135" t="s">
+      <c r="B135" t="s">
         <v>237</v>
       </c>
-      <c r="L135" t="s">
+      <c r="C135" t="s">
         <v>259</v>
       </c>
-      <c r="O135">
+      <c r="D135">
         <v>1000</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>72</v>
       </c>
-      <c r="F136" t="s">
+      <c r="B136" t="s">
         <v>238</v>
       </c>
-      <c r="L136" t="s">
+      <c r="C136" t="s">
         <v>260</v>
       </c>
-      <c r="O136">
+      <c r="D136">
         <v>30000</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>223</v>
       </c>
-      <c r="F137" t="s">
+      <c r="B137" t="s">
         <v>239</v>
       </c>
-      <c r="L137" t="s">
+      <c r="C137" t="s">
         <v>261</v>
       </c>
-      <c r="O137">
+      <c r="D137">
         <v>500</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>223</v>
       </c>
-      <c r="F138" t="s">
+      <c r="B138" t="s">
         <v>239</v>
       </c>
-      <c r="L138" t="s">
+      <c r="C138" t="s">
         <v>261</v>
       </c>
-      <c r="O138">
+      <c r="D138">
         <v>499</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>113</v>
       </c>
-      <c r="F139" t="s">
+      <c r="B139" t="s">
         <v>240</v>
       </c>
-      <c r="L139" t="s">
+      <c r="C139" t="s">
         <v>262</v>
       </c>
-      <c r="O139">
+      <c r="D139">
         <v>300</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>41</v>
       </c>
-      <c r="F140" t="s">
+      <c r="B140" t="s">
         <v>135</v>
       </c>
-      <c r="L140" t="s">
+      <c r="C140" t="s">
         <v>263</v>
       </c>
-      <c r="O140">
+      <c r="D140">
         <v>7000</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>105</v>
       </c>
-      <c r="F141" t="s">
+      <c r="B141" t="s">
         <v>106</v>
       </c>
-      <c r="L141" t="s">
+      <c r="C141" t="s">
         <v>264</v>
       </c>
-      <c r="O141">
+      <c r="D141">
         <v>2000</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>52</v>
       </c>
-      <c r="F142" t="s">
+      <c r="B142" t="s">
         <v>53</v>
       </c>
-      <c r="L142" t="s">
+      <c r="C142" t="s">
         <v>265</v>
       </c>
-      <c r="O142">
+      <c r="D142">
         <v>5000</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>47</v>
       </c>
-      <c r="F143" t="s">
+      <c r="B143" t="s">
         <v>120</v>
       </c>
-      <c r="L143" t="s">
+      <c r="C143" t="s">
         <v>266</v>
       </c>
-      <c r="O143">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>109</v>
       </c>
-      <c r="F144" t="s">
+      <c r="B144" t="s">
         <v>110</v>
       </c>
-      <c r="L144" t="s">
+      <c r="C144" t="s">
         <v>267</v>
       </c>
-      <c r="O144">
+      <c r="D144">
         <v>10000</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>0</v>
       </c>
-      <c r="F145" t="s">
+      <c r="B145" t="s">
         <v>79</v>
       </c>
-      <c r="L145" t="s">
+      <c r="C145" t="s">
         <v>268</v>
       </c>
-      <c r="O145">
+      <c r="D145">
         <v>15000</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>4</v>
       </c>
-      <c r="F146" t="s">
+      <c r="B146" t="s">
         <v>5</v>
       </c>
-      <c r="L146" t="s">
+      <c r="C146" t="s">
         <v>180</v>
       </c>
-      <c r="O146">
+      <c r="D146">
         <v>300</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>31</v>
       </c>
-      <c r="F147" t="s">
+      <c r="B147" t="s">
         <v>67</v>
       </c>
-      <c r="L147" t="s">
+      <c r="C147" t="s">
         <v>269</v>
       </c>
-      <c r="O147">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>8</v>
       </c>
-      <c r="F148" t="s">
+      <c r="B148" t="s">
         <v>241</v>
       </c>
-      <c r="L148" t="s">
+      <c r="C148" t="s">
         <v>270</v>
       </c>
-      <c r="O148">
+      <c r="D148">
         <v>500</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>224</v>
       </c>
-      <c r="F149" t="s">
+      <c r="B149" t="s">
         <v>242</v>
       </c>
-      <c r="L149" t="s">
+      <c r="C149" t="s">
         <v>271</v>
       </c>
-      <c r="O149">
+      <c r="D149">
         <v>2000</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>72</v>
       </c>
-      <c r="F150" t="s">
+      <c r="B150" t="s">
         <v>88</v>
       </c>
-      <c r="L150">
+      <c r="C150">
         <v>23000</v>
       </c>
-      <c r="O150">
+      <c r="D150">
         <v>200</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>0</v>
       </c>
-      <c r="F151" t="s">
+      <c r="B151" t="s">
         <v>89</v>
       </c>
-      <c r="L151">
+      <c r="C151">
         <v>27920</v>
       </c>
-      <c r="O151">
+      <c r="D151">
         <v>10000</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>6</v>
       </c>
-      <c r="F152" t="s">
+      <c r="B152" t="s">
         <v>7</v>
       </c>
-      <c r="L152">
+      <c r="C152">
         <v>28249</v>
       </c>
-      <c r="O152">
+      <c r="D152">
         <v>300</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>90</v>
       </c>
-      <c r="F153" t="s">
+      <c r="B153" t="s">
         <v>91</v>
       </c>
-      <c r="L153">
+      <c r="C153">
         <v>26196</v>
       </c>
-      <c r="O153">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>10</v>
       </c>
-      <c r="F154" t="s">
+      <c r="B154" t="s">
         <v>11</v>
       </c>
-      <c r="L154">
+      <c r="C154">
         <v>28599</v>
       </c>
-      <c r="O154">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>8</v>
       </c>
-      <c r="F155" t="s">
+      <c r="B155" t="s">
         <v>9</v>
       </c>
-      <c r="L155">
+      <c r="C155">
         <v>21888</v>
       </c>
-      <c r="O155">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>14</v>
       </c>
-      <c r="F156" t="s">
+      <c r="B156" t="s">
         <v>15</v>
       </c>
-      <c r="L156">
+      <c r="C156">
         <v>33418</v>
       </c>
-      <c r="O156">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>35</v>
       </c>
-      <c r="F157" t="s">
+      <c r="B157" t="s">
         <v>92</v>
       </c>
-      <c r="L157">
+      <c r="C157">
         <v>23318</v>
       </c>
-      <c r="O157">
+      <c r="D157">
         <v>10000</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>84</v>
       </c>
-      <c r="F158" t="s">
+      <c r="B158" t="s">
         <v>93</v>
       </c>
-      <c r="L158">
+      <c r="C158">
         <v>26829</v>
       </c>
-      <c r="O158">
+      <c r="D158">
         <v>10000</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>94</v>
       </c>
-      <c r="F159" t="s">
+      <c r="B159" t="s">
         <v>95</v>
       </c>
-      <c r="L159">
+      <c r="C159">
         <v>28382</v>
       </c>
-      <c r="O159">
+      <c r="D159">
         <v>6000</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>96</v>
       </c>
-      <c r="F160" t="s">
+      <c r="B160" t="s">
         <v>97</v>
       </c>
-      <c r="L160">
+      <c r="C160">
         <v>22614</v>
       </c>
-      <c r="O160">
+      <c r="D160">
         <v>20000</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>0</v>
       </c>
-      <c r="F161" t="s">
+      <c r="B161" t="s">
         <v>89</v>
       </c>
-      <c r="L161">
+      <c r="C161">
         <v>27920</v>
       </c>
-      <c r="O161">
+      <c r="D161">
         <v>10000</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>16</v>
       </c>
-      <c r="F162" t="s">
+      <c r="B162" t="s">
         <v>17</v>
       </c>
-      <c r="L162">
+      <c r="C162">
         <v>28780</v>
       </c>
-      <c r="O162">
+      <c r="D162">
         <v>200</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>81</v>
       </c>
-      <c r="F163" t="s">
+      <c r="B163" t="s">
         <v>98</v>
       </c>
-      <c r="L163">
+      <c r="C163">
         <v>24651</v>
       </c>
-      <c r="O163">
+      <c r="D163">
         <v>100000</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>84</v>
       </c>
-      <c r="F164" t="s">
+      <c r="B164" t="s">
         <v>99</v>
       </c>
-      <c r="L164">
+      <c r="C164">
         <v>25840</v>
       </c>
-      <c r="O164">
+      <c r="D164">
         <v>20000</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>100</v>
       </c>
-      <c r="F165" t="s">
+      <c r="B165" t="s">
         <v>58</v>
       </c>
-      <c r="L165">
+      <c r="C165">
         <v>25408</v>
       </c>
-      <c r="O165">
+      <c r="D165">
         <v>100000</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>44</v>
       </c>
-      <c r="F166" t="s">
+      <c r="B166" t="s">
         <v>75</v>
       </c>
-      <c r="L166">
+      <c r="C166">
         <v>26398</v>
       </c>
-      <c r="O166">
+      <c r="D166">
         <v>200</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>10</v>
       </c>
-      <c r="F167" t="s">
+      <c r="B167" t="s">
         <v>101</v>
       </c>
-      <c r="L167">
+      <c r="C167">
         <v>24098</v>
       </c>
-      <c r="O167">
+      <c r="D167">
         <v>5000</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>18</v>
       </c>
-      <c r="F168" t="s">
+      <c r="B168" t="s">
         <v>102</v>
       </c>
-      <c r="L168">
+      <c r="C168">
         <v>28425</v>
       </c>
-      <c r="O168">
+      <c r="D168">
         <v>5000</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>103</v>
       </c>
-      <c r="F169" t="s">
+      <c r="B169" t="s">
         <v>104</v>
       </c>
-      <c r="L169">
+      <c r="C169">
         <v>27179</v>
       </c>
-      <c r="O169">
+      <c r="D169">
         <v>5000</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>105</v>
       </c>
-      <c r="F170" t="s">
+      <c r="B170" t="s">
         <v>106</v>
       </c>
-      <c r="L170">
+      <c r="C170">
         <v>33288</v>
       </c>
-      <c r="O170">
+      <c r="D170">
         <v>1000</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>20</v>
       </c>
-      <c r="F171" t="s">
+      <c r="B171" t="s">
         <v>107</v>
       </c>
-      <c r="L171">
+      <c r="C171">
         <v>24489</v>
       </c>
-      <c r="O171">
+      <c r="D171">
         <v>30000</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>59</v>
       </c>
-      <c r="F172" t="s">
+      <c r="B172" t="s">
         <v>108</v>
       </c>
-      <c r="L172">
+      <c r="C172">
         <v>18777</v>
       </c>
-      <c r="O172">
+      <c r="D172">
         <v>300</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>109</v>
       </c>
-      <c r="F173" t="s">
+      <c r="B173" t="s">
         <v>110</v>
       </c>
-      <c r="L173">
+      <c r="C173">
         <v>29136</v>
       </c>
-      <c r="O173">
+      <c r="D173">
         <v>3000</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>18</v>
       </c>
-      <c r="F174" t="s">
+      <c r="B174" t="s">
         <v>78</v>
       </c>
-      <c r="L174">
+      <c r="C174">
         <v>27566</v>
       </c>
-      <c r="O174">
+      <c r="D174">
         <v>1000</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>0</v>
       </c>
-      <c r="F175" t="s">
+      <c r="B175" t="s">
         <v>80</v>
       </c>
-      <c r="L175">
+      <c r="C175">
         <v>19539</v>
       </c>
-      <c r="O175">
+      <c r="D175">
         <v>15000</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>26</v>
       </c>
-      <c r="F176" t="s">
+      <c r="B176" t="s">
         <v>111</v>
       </c>
-      <c r="L176">
+      <c r="C176">
         <v>25781</v>
       </c>
-      <c r="O176">
+      <c r="D176">
         <v>10000</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>70</v>
       </c>
-      <c r="F177" t="s">
+      <c r="B177" t="s">
         <v>112</v>
       </c>
-      <c r="L177">
+      <c r="C177">
         <v>25814</v>
       </c>
-      <c r="O177">
+      <c r="D177">
         <v>10000</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>113</v>
       </c>
-      <c r="F178" t="s">
+      <c r="B178" t="s">
         <v>114</v>
       </c>
-      <c r="L178">
+      <c r="C178">
         <v>18319</v>
       </c>
-      <c r="O178">
+      <c r="D178">
         <v>300</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>20</v>
       </c>
-      <c r="F179" t="s">
+      <c r="B179" t="s">
         <v>115</v>
       </c>
-      <c r="L179">
+      <c r="C179">
         <v>18697</v>
       </c>
-      <c r="O179">
+      <c r="D179">
         <v>5000</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>84</v>
       </c>
-      <c r="F180" t="s">
+      <c r="B180" t="s">
         <v>116</v>
       </c>
-      <c r="L180">
+      <c r="C180">
         <v>24305</v>
       </c>
-      <c r="O180">
+      <c r="D180">
         <v>10000</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>117</v>
       </c>
-      <c r="F181" t="s">
+      <c r="B181" t="s">
         <v>118</v>
       </c>
-      <c r="L181">
+      <c r="C181">
         <v>20269</v>
       </c>
-      <c r="O181">
+      <c r="D181">
         <v>300</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>109</v>
       </c>
-      <c r="F182" t="s">
+      <c r="B182" t="s">
         <v>110</v>
       </c>
-      <c r="L182">
+      <c r="C182">
         <v>29136</v>
       </c>
-      <c r="O182">
+      <c r="D182">
         <v>1200</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>41</v>
       </c>
-      <c r="F183" t="s">
+      <c r="B183" t="s">
         <v>119</v>
       </c>
-      <c r="L183">
+      <c r="C183">
         <v>20728</v>
       </c>
-      <c r="O183">
+      <c r="D183">
         <v>50000</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>47</v>
       </c>
-      <c r="F184" t="s">
+      <c r="B184" t="s">
         <v>120</v>
       </c>
-      <c r="L184">
+      <c r="C184">
         <v>31626</v>
       </c>
-      <c r="O184">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D184">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>18</v>
       </c>
-      <c r="F185" t="s">
+      <c r="B185" t="s">
         <v>121</v>
       </c>
-      <c r="L185">
+      <c r="C185">
         <v>18709</v>
       </c>
-      <c r="O185">
+      <c r="D185">
         <v>2000</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>122</v>
       </c>
-      <c r="F186" t="s">
+      <c r="B186" t="s">
         <v>123</v>
       </c>
-      <c r="L186">
+      <c r="C186">
         <v>22087</v>
       </c>
-      <c r="O186">
+      <c r="D186">
         <v>10000</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>8</v>
       </c>
-      <c r="F187" t="s">
+      <c r="B187" t="s">
         <v>124</v>
       </c>
-      <c r="L187">
+      <c r="C187">
         <v>22977</v>
       </c>
-      <c r="O187">
+      <c r="D187">
         <v>20000</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>125</v>
       </c>
-      <c r="F188" t="s">
+      <c r="B188" t="s">
         <v>126</v>
       </c>
-      <c r="L188">
+      <c r="C188">
         <v>22608</v>
       </c>
-      <c r="O188">
+      <c r="D188">
         <v>1000</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>122</v>
       </c>
-      <c r="F189" t="s">
+      <c r="B189" t="s">
         <v>123</v>
       </c>
-      <c r="L189">
+      <c r="C189">
         <v>22087</v>
       </c>
-      <c r="O189">
+      <c r="D189">
         <v>10000</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>4</v>
       </c>
-      <c r="F190" t="s">
+      <c r="B190" t="s">
         <v>5</v>
       </c>
-      <c r="L190">
+      <c r="C190">
         <v>24273</v>
       </c>
-      <c r="O190">
+      <c r="D190">
         <v>300</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>127</v>
       </c>
-      <c r="F191" t="s">
+      <c r="B191" t="s">
         <v>128</v>
       </c>
-      <c r="L191">
+      <c r="C191">
         <v>21907</v>
       </c>
-      <c r="O191">
+      <c r="D191">
         <v>4000</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>31</v>
       </c>
-      <c r="F192" t="s">
+      <c r="B192" t="s">
         <v>67</v>
       </c>
-      <c r="L192">
+      <c r="C192">
         <v>27775</v>
       </c>
-      <c r="O192">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D192">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>129</v>
       </c>
-      <c r="F193" t="s">
+      <c r="B193" t="s">
         <v>272</v>
       </c>
-      <c r="L193">
+      <c r="C193">
         <v>23995</v>
       </c>
-      <c r="O193">
+      <c r="D193">
         <v>10000</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>6</v>
       </c>
-      <c r="F194" t="s">
+      <c r="B194" t="s">
         <v>130</v>
       </c>
-      <c r="L194">
+      <c r="C194">
         <v>26534</v>
       </c>
-      <c r="O194">
+      <c r="D194">
         <v>10000</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>6</v>
       </c>
-      <c r="F195" t="s">
+      <c r="B195" t="s">
         <v>7</v>
       </c>
-      <c r="L195">
+      <c r="C195">
         <v>28249</v>
       </c>
-      <c r="O195">
+      <c r="D195">
         <v>300</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>10</v>
       </c>
-      <c r="F196" t="s">
+      <c r="B196" t="s">
         <v>11</v>
       </c>
-      <c r="L196">
+      <c r="C196">
         <v>28599</v>
       </c>
-      <c r="O196">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D196">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>8</v>
       </c>
-      <c r="F197" t="s">
+      <c r="B197" t="s">
         <v>9</v>
       </c>
-      <c r="L197">
+      <c r="C197">
         <v>21888</v>
       </c>
-      <c r="O197">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D197">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>14</v>
       </c>
-      <c r="F198" t="s">
+      <c r="B198" t="s">
         <v>15</v>
       </c>
-      <c r="L198">
+      <c r="C198">
         <v>33418</v>
       </c>
-      <c r="O198">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D198">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>90</v>
       </c>
-      <c r="F199" t="s">
+      <c r="B199" t="s">
         <v>91</v>
       </c>
-      <c r="L199">
+      <c r="C199">
         <v>26196</v>
       </c>
-      <c r="O199">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D199">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>131</v>
       </c>
-      <c r="F200" t="s">
+      <c r="B200" t="s">
         <v>132</v>
       </c>
-      <c r="L200">
+      <c r="C200">
         <v>31918</v>
       </c>
-      <c r="O200">
+      <c r="D200">
         <v>10000</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>45</v>
       </c>
-      <c r="F201" t="s">
+      <c r="B201" t="s">
         <v>67</v>
       </c>
-      <c r="L201">
+      <c r="C201">
         <v>20512</v>
       </c>
-      <c r="O201">
+      <c r="D201">
         <v>12500</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>84</v>
       </c>
-      <c r="F202" t="s">
+      <c r="B202" t="s">
         <v>133</v>
       </c>
-      <c r="L202">
+      <c r="C202">
         <v>26618</v>
       </c>
-      <c r="O202">
+      <c r="D202">
         <v>12500</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>16</v>
       </c>
-      <c r="F203" t="s">
+      <c r="B203" t="s">
         <v>17</v>
       </c>
-      <c r="L203">
+      <c r="C203">
         <v>28780</v>
       </c>
-      <c r="O203">
+      <c r="D203">
         <v>200</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>30</v>
       </c>
-      <c r="F204" t="s">
+      <c r="B204" t="s">
         <v>134</v>
       </c>
-      <c r="L204">
+      <c r="C204">
         <v>28175</v>
       </c>
-      <c r="O204">
+      <c r="D204">
         <v>40000</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>41</v>
       </c>
-      <c r="F205" t="s">
+      <c r="B205" t="s">
         <v>135</v>
       </c>
-      <c r="L205">
+      <c r="C205">
         <v>27956</v>
       </c>
-      <c r="O205">
+      <c r="D205">
         <v>3000</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>36</v>
       </c>
-      <c r="F206" t="s">
+      <c r="B206" t="s">
         <v>136</v>
       </c>
-      <c r="L206">
+      <c r="C206">
         <v>24445</v>
       </c>
-      <c r="O206">
+      <c r="D206">
         <v>2000</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>0</v>
       </c>
-      <c r="F207" t="s">
+      <c r="B207" t="s">
         <v>137</v>
       </c>
-      <c r="L207">
+      <c r="C207">
         <v>22093</v>
       </c>
-      <c r="O207">
+      <c r="D207">
         <v>10000</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>105</v>
       </c>
-      <c r="F208" t="s">
+      <c r="B208" t="s">
         <v>106</v>
       </c>
-      <c r="L208">
+      <c r="C208">
         <v>33288</v>
       </c>
-      <c r="O208">
+      <c r="D208">
         <v>2000</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>138</v>
       </c>
-      <c r="F209" t="s">
+      <c r="B209" t="s">
         <v>139</v>
       </c>
-      <c r="L209">
+      <c r="C209">
         <v>28793</v>
       </c>
-      <c r="O209">
+      <c r="D209">
         <v>5000</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>138</v>
       </c>
-      <c r="F210" t="s">
+      <c r="B210" t="s">
         <v>139</v>
       </c>
-      <c r="L210">
+      <c r="C210">
         <v>28793</v>
       </c>
-      <c r="O210">
+      <c r="D210">
         <v>4000</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>109</v>
       </c>
-      <c r="F211" t="s">
+      <c r="B211" t="s">
         <v>110</v>
       </c>
-      <c r="L211">
+      <c r="C211">
         <v>29136</v>
       </c>
-      <c r="O211">
+      <c r="D211">
         <v>10800</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>44</v>
       </c>
-      <c r="F212" t="s">
+      <c r="B212" t="s">
         <v>75</v>
       </c>
-      <c r="L212">
+      <c r="C212">
         <v>26398</v>
       </c>
-      <c r="O212">
+      <c r="D212">
         <v>200</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>20</v>
       </c>
-      <c r="F213" t="s">
+      <c r="B213" t="s">
         <v>63</v>
       </c>
-      <c r="L213">
+      <c r="C213">
         <v>22676</v>
       </c>
-      <c r="O213">
+      <c r="D213">
         <v>2000</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>18</v>
       </c>
-      <c r="F214" t="s">
+      <c r="B214" t="s">
         <v>28</v>
       </c>
-      <c r="L214">
+      <c r="C214">
         <v>27566</v>
       </c>
-      <c r="O214">
+      <c r="D214">
         <v>1000</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>140</v>
       </c>
-      <c r="F215" t="s">
+      <c r="B215" t="s">
         <v>141</v>
       </c>
-      <c r="L215">
+      <c r="C215">
         <v>30053</v>
       </c>
-      <c r="O215">
+      <c r="D215">
         <v>7000</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>47</v>
       </c>
-      <c r="F216" t="s">
+      <c r="B216" t="s">
         <v>120</v>
       </c>
-      <c r="L216">
+      <c r="C216">
         <v>31626</v>
       </c>
-      <c r="O216">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D216">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>4</v>
       </c>
-      <c r="F217" t="s">
+      <c r="B217" t="s">
         <v>5</v>
       </c>
-      <c r="L217">
+      <c r="C217">
         <v>24273</v>
       </c>
-      <c r="O217">
+      <c r="D217">
         <v>300</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>24</v>
       </c>
-      <c r="F218" t="s">
+      <c r="B218" t="s">
         <v>25</v>
       </c>
-      <c r="L218">
+      <c r="C218">
         <v>25932</v>
       </c>
-      <c r="O218">
+      <c r="D218">
         <v>10000</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>6</v>
       </c>
-      <c r="F219" t="s">
+      <c r="B219" t="s">
         <v>7</v>
       </c>
-      <c r="L219">
+      <c r="C219">
         <v>28249</v>
       </c>
-      <c r="O219">
+      <c r="D219">
         <v>300</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>10</v>
       </c>
-      <c r="F220" t="s">
+      <c r="B220" t="s">
         <v>11</v>
       </c>
-      <c r="L220">
+      <c r="C220">
         <v>28599</v>
       </c>
-      <c r="O220">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D220">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>8</v>
       </c>
-      <c r="F221" t="s">
+      <c r="B221" t="s">
         <v>9</v>
       </c>
-      <c r="L221">
+      <c r="C221">
         <v>21888</v>
       </c>
-      <c r="O221">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D221">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>14</v>
       </c>
-      <c r="F222" t="s">
+      <c r="B222" t="s">
         <v>15</v>
       </c>
-      <c r="L222">
+      <c r="C222">
         <v>33418</v>
       </c>
-      <c r="O222">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D222">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>90</v>
       </c>
-      <c r="F223" t="s">
+      <c r="B223" t="s">
         <v>91</v>
       </c>
-      <c r="L223">
+      <c r="C223">
         <v>26196</v>
       </c>
-      <c r="O223">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D223">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>29</v>
       </c>
-      <c r="F224" t="s">
+      <c r="B224" t="s">
         <v>142</v>
       </c>
-      <c r="L224">
+      <c r="C224">
         <v>23930</v>
       </c>
-      <c r="O224">
+      <c r="D224">
         <v>200</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>16</v>
       </c>
-      <c r="F225" t="s">
+      <c r="B225" t="s">
         <v>17</v>
       </c>
-      <c r="L225">
+      <c r="C225">
         <v>28780</v>
       </c>
-      <c r="O225">
+      <c r="D225">
         <v>200</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>44</v>
       </c>
-      <c r="F226" t="s">
+      <c r="B226" t="s">
         <v>75</v>
       </c>
-      <c r="L226">
+      <c r="C226">
         <v>26398</v>
       </c>
-      <c r="O226">
+      <c r="D226">
         <v>200</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>84</v>
       </c>
-      <c r="F227" t="s">
+      <c r="B227" t="s">
         <v>143</v>
       </c>
-      <c r="L227">
+      <c r="C227">
         <v>34867</v>
       </c>
-      <c r="O227">
+      <c r="D227">
         <v>235</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>18</v>
       </c>
-      <c r="F228" t="s">
+      <c r="B228" t="s">
         <v>28</v>
       </c>
-      <c r="L228">
+      <c r="C228">
         <v>27566</v>
       </c>
-      <c r="O228">
+      <c r="D228">
         <v>1000</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>30</v>
       </c>
-      <c r="F229" t="s">
+      <c r="B229" t="s">
         <v>134</v>
       </c>
-      <c r="L229">
+      <c r="C229">
         <v>28175</v>
       </c>
-      <c r="O229">
+      <c r="D229">
         <v>2200</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>47</v>
       </c>
-      <c r="F230" t="s">
+      <c r="B230" t="s">
         <v>120</v>
       </c>
-      <c r="L230">
+      <c r="C230">
         <v>31626</v>
       </c>
-      <c r="O230">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D230">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>4</v>
       </c>
-      <c r="F231" t="s">
+      <c r="B231" t="s">
         <v>5</v>
       </c>
-      <c r="L231">
+      <c r="C231">
         <v>24273</v>
       </c>
-      <c r="O231">
+      <c r="D231">
         <v>300</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>144</v>
       </c>
-      <c r="F232" t="s">
+      <c r="B232" t="s">
         <v>145</v>
       </c>
-      <c r="L232">
+      <c r="C232">
         <v>19897</v>
       </c>
-      <c r="O232">
+      <c r="D232">
         <v>21378</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>6</v>
       </c>
-      <c r="F233" t="s">
+      <c r="B233" t="s">
         <v>7</v>
       </c>
-      <c r="L233">
+      <c r="C233">
         <v>28249</v>
       </c>
-      <c r="O233">
+      <c r="D233">
         <v>300</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>8</v>
       </c>
-      <c r="F234" t="s">
+      <c r="B234" t="s">
         <v>9</v>
       </c>
-      <c r="L234">
+      <c r="C234">
         <v>21888</v>
       </c>
-      <c r="O234">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D234">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>10</v>
       </c>
-      <c r="F235" t="s">
+      <c r="B235" t="s">
         <v>11</v>
       </c>
-      <c r="L235">
+      <c r="C235">
         <v>28599</v>
       </c>
-      <c r="O235">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D235">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>42</v>
       </c>
-      <c r="F236" t="s">
+      <c r="B236" t="s">
         <v>146</v>
       </c>
-      <c r="L236">
+      <c r="C236">
         <v>18823</v>
       </c>
-      <c r="O236">
+      <c r="D236">
         <v>1000</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>14</v>
       </c>
-      <c r="F237" t="s">
+      <c r="B237" t="s">
         <v>15</v>
       </c>
-      <c r="L237">
+      <c r="C237">
         <v>33418</v>
       </c>
-      <c r="O237">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D237">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>90</v>
       </c>
-      <c r="F238" t="s">
+      <c r="B238" t="s">
         <v>91</v>
       </c>
-      <c r="L238">
+      <c r="C238">
         <v>26196</v>
       </c>
-      <c r="O238">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D238">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>29</v>
       </c>
-      <c r="F239" t="s">
+      <c r="B239" t="s">
         <v>142</v>
       </c>
-      <c r="L239">
+      <c r="C239">
         <v>23930</v>
       </c>
-      <c r="O239">
+      <c r="D239">
         <v>200</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>36</v>
       </c>
-      <c r="F240" t="s">
+      <c r="B240" t="s">
         <v>147</v>
       </c>
-      <c r="L240">
+      <c r="C240">
         <v>27064</v>
       </c>
-      <c r="O240">
+      <c r="D240">
         <v>8000</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>30</v>
       </c>
-      <c r="F241" t="s">
+      <c r="B241" t="s">
         <v>134</v>
       </c>
-      <c r="L241">
+      <c r="C241">
         <v>28175</v>
       </c>
-      <c r="O241">
+      <c r="D241">
         <v>984</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>16</v>
       </c>
-      <c r="F242" t="s">
+      <c r="B242" t="s">
         <v>17</v>
       </c>
-      <c r="L242">
+      <c r="C242">
         <v>28780</v>
       </c>
-      <c r="O242">
+      <c r="D242">
         <v>200</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>44</v>
       </c>
-      <c r="F243" t="s">
+      <c r="B243" t="s">
         <v>75</v>
       </c>
-      <c r="L243">
+      <c r="C243">
         <v>26398</v>
       </c>
-      <c r="O243">
+      <c r="D243">
         <v>200</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>18</v>
       </c>
-      <c r="F244" t="s">
+      <c r="B244" t="s">
         <v>28</v>
       </c>
-      <c r="L244">
+      <c r="C244">
         <v>27566</v>
       </c>
-      <c r="O244">
+      <c r="D244">
         <v>1000</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>47</v>
       </c>
-      <c r="F245" t="s">
+      <c r="B245" t="s">
         <v>148</v>
       </c>
-      <c r="L245">
+      <c r="C245">
         <v>27431</v>
       </c>
-      <c r="O245">
+      <c r="D245">
         <v>500</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>4</v>
       </c>
-      <c r="F246" t="s">
+      <c r="B246" t="s">
         <v>5</v>
       </c>
-      <c r="L246">
+      <c r="C246">
         <v>24273</v>
       </c>
-      <c r="O246">
+      <c r="D246">
         <v>300</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>47</v>
       </c>
-      <c r="F247" t="s">
+      <c r="B247" t="s">
         <v>120</v>
       </c>
-      <c r="L247">
+      <c r="C247">
         <v>31626</v>
       </c>
-      <c r="O247">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D247">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>20</v>
       </c>
-      <c r="F248" t="s">
+      <c r="B248" t="s">
         <v>149</v>
       </c>
-      <c r="L248">
+      <c r="C248">
         <v>25563</v>
       </c>
-      <c r="O248">
+      <c r="D248">
         <v>1100</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>103</v>
       </c>
-      <c r="F249" t="s">
+      <c r="B249" t="s">
         <v>150</v>
       </c>
-      <c r="L249">
+      <c r="C249">
         <v>32460</v>
       </c>
-      <c r="O249">
+      <c r="D249">
         <v>10000</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>6</v>
       </c>
-      <c r="F250" t="s">
+      <c r="B250" t="s">
         <v>7</v>
       </c>
-      <c r="L250">
+      <c r="C250">
         <v>28249</v>
       </c>
-      <c r="O250">
+      <c r="D250">
         <v>300</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>10</v>
       </c>
-      <c r="F251" t="s">
+      <c r="B251" t="s">
         <v>11</v>
       </c>
-      <c r="L251">
+      <c r="C251">
         <v>28599</v>
       </c>
-      <c r="O251">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D251">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>14</v>
       </c>
-      <c r="F252" t="s">
+      <c r="B252" t="s">
         <v>15</v>
       </c>
-      <c r="L252">
+      <c r="C252">
         <v>33418</v>
       </c>
-      <c r="O252">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D252">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>90</v>
       </c>
-      <c r="F253" t="s">
+      <c r="B253" t="s">
         <v>91</v>
       </c>
-      <c r="L253">
+      <c r="C253">
         <v>26196</v>
       </c>
-      <c r="O253">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D253">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>29</v>
       </c>
-      <c r="F254" t="s">
+      <c r="B254" t="s">
         <v>142</v>
       </c>
-      <c r="L254">
+      <c r="C254">
         <v>23930</v>
       </c>
-      <c r="O254">
+      <c r="D254">
         <v>200</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>16</v>
       </c>
-      <c r="F255" t="s">
+      <c r="B255" t="s">
         <v>17</v>
       </c>
-      <c r="L255">
+      <c r="C255">
         <v>28780</v>
       </c>
-      <c r="O255">
+      <c r="D255">
         <v>200</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>44</v>
       </c>
-      <c r="F256" t="s">
+      <c r="B256" t="s">
         <v>75</v>
       </c>
-      <c r="L256">
+      <c r="C256">
         <v>26398</v>
       </c>
-      <c r="O256">
+      <c r="D256">
         <v>200</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>18</v>
       </c>
-      <c r="F257" t="s">
+      <c r="B257" t="s">
         <v>151</v>
       </c>
-      <c r="L257">
+      <c r="C257">
         <v>27566</v>
       </c>
-      <c r="O257">
+      <c r="D257">
         <v>1000</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>152</v>
       </c>
-      <c r="F258" t="s">
+      <c r="B258" t="s">
         <v>153</v>
       </c>
-      <c r="L258">
+      <c r="C258">
         <v>24048</v>
       </c>
-      <c r="O258">
+      <c r="D258">
         <v>5000</v>
       </c>
     </row>
